--- a/src/main/resources/190-wanxin-p2p/wanxinp2p-gateway-server_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/wanxinp2p-gateway-server_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="95">
   <si>
     <t>类名</t>
   </si>
@@ -112,13 +112,13 @@
     <t>com.wanxin.gateway.config.RestOAuth2AuthExceptionEntryPoint</t>
   </si>
   <si>
-    <t>commence(javax.servlet.http.HttpServletRequest)</t>
+    <t>commence(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.core.AuthenticationException)</t>
   </si>
   <si>
     <t>com.wanxin.gateway.config.ClientDefaultAccessTokenConverter</t>
   </si>
   <si>
-    <t>convertAccessToken(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>convertAccessToken(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>java.util.Map</t>
@@ -160,7 +160,7 @@
     <t>com.wanxin.gateway.config.RestAccessDeniedHandler</t>
   </si>
   <si>
-    <t>handle(javax.servlet.http.HttpServletRequest)</t>
+    <t>handle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.access.AccessDeniedException)</t>
   </si>
   <si>
     <t>com.wanxin.gateway.config.ResourceServerConfig</t>
@@ -199,7 +199,7 @@
     <t>com.wanxin.gateway.common.util.HttpUtil</t>
   </si>
   <si>
-    <t>writerError(com.wanxin.common.domain.RestResponse)</t>
+    <t>writerError(com.wanxin.common.domain.RestResponse,javax.servlet.http.HttpServletResponse)</t>
   </si>
   <si>
     <t>com.wanxin.gateway.GatewayServerApplication</t>
@@ -1998,7 +1998,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
@@ -2083,7 +2083,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
@@ -2094,13 +2094,13 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
@@ -2108,18 +2108,52 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>88</v>
       </c>
     </row>
